--- a/data.xlsx
+++ b/data.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\798014\eclipse-workspace\GradAssignmentSelenium\src\main\java\co\ExcelDataPackage\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="5385"/>
   </bookViews>
   <sheets>
     <sheet name="DataValues" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t xml:space="preserve">Year </t>
   </si>
@@ -62,13 +58,7 @@
     <t>Aec</t>
   </si>
   <si>
-    <t>WAG</t>
-  </si>
-  <si>
     <t>PPG</t>
-  </si>
-  <si>
-    <t>ACC</t>
   </si>
   <si>
     <t>2010-SURRY HILLS</t>
@@ -401,7 +391,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,13 +438,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -462,7 +452,7 @@
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -471,7 +461,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -482,13 +472,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
